--- a/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
+++ b/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C50257-60AC-402D-8671-DCB3342B6568}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B97B864-B17E-4DB4-865C-FC2151D4C26D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1115,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="3">
-        <v>43418</v>
+        <v>43423</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -1154,7 +1154,7 @@
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>F74 - B2</f>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
